--- a/Flipkart/testdata/testdata.xlsx
+++ b/Flipkart/testdata/testdata.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{30FD9185-27CA-489D-830F-47407BD09708}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14835" windowHeight="6435"/>
+    <workbookView xWindow="30" yWindow="630" windowWidth="14865" windowHeight="9900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC002" sheetId="1" r:id="rId1"/>
     <sheet name="TC003" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <oleSize ref="A1:O20"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K4"/>
 </workbook>
 </file>
 
@@ -61,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +114,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -159,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +200,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +252,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,16 +445,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -423,7 +468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -443,16 +488,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -466,7 +511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -480,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -494,7 +539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -508,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -522,7 +567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -543,12 +588,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Flipkart/testdata/testdata.xlsx
+++ b/Flipkart/testdata/testdata.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{30FD9185-27CA-489D-830F-47407BD09708}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FlipkartGitHub\Flipkart\Flipkart\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961492AB-1BD1-4714-AF25-74B316087098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="630" windowWidth="14865" windowHeight="9900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC002" sheetId="1" r:id="rId1"/>
     <sheet name="TC003" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TC004" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Dresses</t>
   </si>
@@ -452,9 +456,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -468,7 +472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -491,13 +495,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -511,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -525,7 +529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -539,7 +543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -553,7 +557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -567,7 +571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -589,12 +593,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Flipkart/testdata/testdata.xlsx
+++ b/Flipkart/testdata/testdata.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{30FD9185-27CA-489D-830F-47407BD09708}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bala/git/Flipkart/Flipkart/testdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17005720-16F0-3D40-BFF8-ECBE74B8123D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="630" windowWidth="14865" windowHeight="9900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="640" windowWidth="14860" windowHeight="9900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC002" sheetId="1" r:id="rId1"/>
     <sheet name="TC003" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TC004" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Dresses</t>
   </si>
@@ -452,9 +457,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -468,7 +473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -491,13 +496,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -511,7 +516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -525,7 +530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -539,7 +544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -553,7 +558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -567,7 +572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -588,12 +593,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2058BD4-0018-9240-8535-D17C6EBB03A5}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Flipkart/testdata/testdata.xlsx
+++ b/Flipkart/testdata/testdata.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FlipkartGitHub\Flipkart\Flipkart\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961492AB-1BD1-4714-AF25-74B316087098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6CE944BF-A19E-4AC1-9656-D0CD76C6C322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14950" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC002" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="TC004" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J9"/>
 </workbook>
 </file>
 
@@ -452,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -595,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Flipkart/testdata/testdata.xlsx
+++ b/Flipkart/testdata/testdata.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bala/git/Flipkart/Flipkart/testdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17005720-16F0-3D40-BFF8-ECBE74B8123D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7F815608-F12A-4002-8F9B-4856B5FF5561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="640" windowWidth="14860" windowHeight="9900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="14925" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC002" sheetId="1" r:id="rId1"/>
     <sheet name="TC003" sheetId="2" r:id="rId2"/>
     <sheet name="TC004" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:K6"/>
 </workbook>
 </file>
 
@@ -453,13 +448,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -473,7 +468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -496,13 +491,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -516,7 +511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -530,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -544,7 +539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -558,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -572,7 +567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -596,13 +591,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2058BD4-0018-9240-8535-D17C6EBB03A5}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -616,7 +611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -630,25 +625,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>